--- a/products_categories/Product_details.xlsx
+++ b/products_categories/Product_details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="478">
   <si>
     <t>h1</t>
   </si>
@@ -1528,6 +1528,255 @@
   <si>
     <t>howToUse</t>
   </si>
+  <si>
+    <t>forever_url</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/c5gJgSPX</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/BtlWAd8u</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/51XKrD0U</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/CcFL9YeD</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/OevtJba7</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/67JtZWgy</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/qY5GlJOY</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/hGOV7jBk</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/wZWsJ8DI</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/lY0pPZdA</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/DszYBBqu</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/3OuKeJNS</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/Mgewjxoh</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/Bw7LTIYH</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/vqbNKGe4</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/QkywOMRR</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/rSN4SSzw</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/dKIR8x9E</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/608ZM6m7</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/bWBqBies</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/pp6Biymf</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/orDUzwrk</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/hZ6XhFLT</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/jXuplLci</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/MmfbgTQI</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/xHCoKe2A</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/F3KOR61U</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/m9JqomVb</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/uCJP3Iei</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/it4M3In5</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/4ptcfIrN</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/9QaTbW7O</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/IG3PwOSB</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/tDAI8LjF</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/Mgwte2JU</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/savXqceB</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/ldN3MY2F</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/Pwm72PiZ</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/lbCkmLZU</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/FBkdYCvw</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/c9Uu3NxI</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/feazZwmR</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/OeBqQf5W</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/ff9QmJ3d</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/vV96wQdN</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/LjiZZ5r3</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/I3ZYPeQR</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/I1fBHfO0</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/ZQ6jLj4u</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/P1e94CjQ</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/95RH86qz</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/8Y4hMlj1</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/ilENrvBE</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/RILK6AbV</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/hVaJWZ3t</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/QrrXTDud</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/zSubVWMB</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/batDZQ5Z</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/rqwf5jzj</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/CkRFq8QX</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/lASN8CmS</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/Ybiouxux</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/zrMoxJu3</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/GjNqqypv</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/ATpiKpn5</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/EcIxs8hM</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/TPocrD47</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/jr3UVgsL</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/BEq3gHup</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/9yvfLLs8</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/yTpqpuy6</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/cF5GiTqo</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/DqyWrQtk</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/kTqbHhE1</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/ZqerjAwE</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/3bUnURrs</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/TmcJJtHQ</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/tUKtBJso</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/tX6OEk50</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/fY4hYK4v</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/aqV1B9le</t>
+  </si>
+  <si>
+    <t>https://thealoeveraco.shop/rcFMHL9o</t>
+  </si>
 </sst>
 </file>
 
@@ -1536,7 +1785,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;лв.&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1565,6 +1814,22 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1583,10 +1848,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1626,9 +1892,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Хипервръзка" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1906,10 +2175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1921,10 +2190,12 @@
     <col min="6" max="6" width="42.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="25.77734375" style="1"/>
+    <col min="9" max="11" width="25.77734375" style="1"/>
+    <col min="12" max="12" width="46.109375" customWidth="1"/>
+    <col min="13" max="16384" width="25.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1958,8 +2229,11 @@
       <c r="K1" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1996,8 +2270,11 @@
       <c r="K2" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2034,8 +2311,11 @@
       <c r="K3" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>346</v>
       </c>
@@ -2072,8 +2352,11 @@
       <c r="K4" s="8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>347</v>
       </c>
@@ -2110,8 +2393,11 @@
       <c r="K5" s="8" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2148,8 +2434,11 @@
       <c r="K6" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2178,8 +2467,11 @@
       <c r="K7" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>356</v>
       </c>
@@ -2209,8 +2501,11 @@
       <c r="K8" s="8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2239,8 +2534,11 @@
       <c r="K9" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2277,8 +2575,11 @@
       <c r="K10" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2315,8 +2616,11 @@
       <c r="K11" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2349,8 +2653,11 @@
       <c r="K12" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -2383,8 +2690,11 @@
       <c r="K13" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>358</v>
       </c>
@@ -2418,8 +2728,11 @@
       <c r="J14" s="11" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2453,8 +2766,11 @@
       <c r="J15" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2488,8 +2804,11 @@
       <c r="J16" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -2519,8 +2838,11 @@
       <c r="J17" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>360</v>
       </c>
@@ -2554,8 +2876,11 @@
       <c r="J18" s="8" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2585,8 +2910,11 @@
       <c r="J19" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -2616,8 +2944,11 @@
       <c r="J20" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -2651,8 +2982,11 @@
       <c r="J21" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -2682,8 +3016,11 @@
       <c r="J22" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -2713,8 +3050,11 @@
       <c r="J23" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="15" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -2744,8 +3084,11 @@
       <c r="J24" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -2775,8 +3118,11 @@
       <c r="J25" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -2802,8 +3148,11 @@
       <c r="J26" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -2833,8 +3182,11 @@
       <c r="J27" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -2868,8 +3220,11 @@
       <c r="J28" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -2899,8 +3254,11 @@
       <c r="J29" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>272</v>
       </c>
@@ -2934,8 +3292,11 @@
       <c r="J30" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="15" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2969,8 +3330,11 @@
       <c r="J31" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="15" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -3000,8 +3364,11 @@
       <c r="J32" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="15" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -3035,8 +3402,11 @@
       <c r="J33" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -3066,8 +3436,11 @@
       <c r="J34" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="15" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -3097,8 +3470,11 @@
       <c r="J35" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="15" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3132,8 +3508,11 @@
       <c r="J36" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L36" s="15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3167,8 +3546,11 @@
       <c r="J37" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L37" s="15" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -3202,8 +3584,11 @@
       <c r="J38" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="15" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -3237,8 +3622,11 @@
       <c r="J39" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L39" s="15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>362</v>
       </c>
@@ -3272,8 +3660,11 @@
       <c r="J40" s="11" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -3303,8 +3694,11 @@
       <c r="J41" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L41" s="15" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -3334,8 +3728,11 @@
       <c r="J42" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L42" s="15" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -3363,8 +3760,11 @@
       <c r="H43" s="5">
         <v>400.64</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="15" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -3398,8 +3798,11 @@
       <c r="J44" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="15" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -3429,8 +3832,11 @@
       <c r="J45" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L45" s="15" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -3464,8 +3870,11 @@
       <c r="J46" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L46" s="15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -3499,8 +3908,11 @@
       <c r="J47" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L47" s="15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -3534,8 +3946,11 @@
       <c r="J48" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L48" s="15" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -3569,8 +3984,11 @@
       <c r="J49" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L49" s="15" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -3598,8 +4016,11 @@
       <c r="H50" s="5">
         <v>195.18</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="15" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -3633,8 +4054,11 @@
       <c r="J51" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L51" s="15" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -3668,8 +4092,11 @@
       <c r="J52" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L52" s="15" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -3703,8 +4130,11 @@
       <c r="J53" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L53" s="15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -3738,8 +4168,11 @@
       <c r="J54" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L54" s="15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -3773,8 +4206,11 @@
       <c r="J55" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L55" s="15" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -3808,8 +4244,11 @@
       <c r="J56" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="15" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -3843,8 +4282,11 @@
       <c r="J57" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L57" s="15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -3878,8 +4320,11 @@
       <c r="J58" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L58" s="15" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -3913,8 +4358,11 @@
       <c r="J59" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L59" s="15" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -3948,8 +4396,11 @@
       <c r="J60" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L60" s="15" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
@@ -3983,8 +4434,11 @@
       <c r="J61" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L61" s="15" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -4014,8 +4468,11 @@
       <c r="J62" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L62" s="15" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
         <v>349</v>
       </c>
@@ -4049,8 +4506,11 @@
       <c r="J63" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L63" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>350</v>
       </c>
@@ -4084,8 +4544,11 @@
       <c r="J64" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L64" s="15" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>351</v>
       </c>
@@ -4119,8 +4582,11 @@
       <c r="J65" s="8" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L65" s="15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>61</v>
       </c>
@@ -4154,8 +4620,11 @@
       <c r="J66" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L66" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>62</v>
       </c>
@@ -4189,8 +4658,11 @@
       <c r="J67" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L67" s="15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>63</v>
       </c>
@@ -4224,8 +4696,11 @@
       <c r="J68" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L68" s="15" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>64</v>
       </c>
@@ -4259,8 +4734,11 @@
       <c r="J69" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L69" s="15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>65</v>
       </c>
@@ -4294,8 +4772,11 @@
       <c r="J70" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L70" s="15" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>66</v>
       </c>
@@ -4329,8 +4810,11 @@
       <c r="J71" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L71" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>67</v>
       </c>
@@ -4354,8 +4838,11 @@
       <c r="H72" s="5">
         <v>1116.3399999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L72" s="15" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>68</v>
       </c>
@@ -4383,8 +4870,11 @@
       <c r="H73" s="5">
         <v>75.19</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L73" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>69</v>
       </c>
@@ -4408,8 +4898,11 @@
       <c r="H74" s="6" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L74" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>70</v>
       </c>
@@ -4439,8 +4932,11 @@
       <c r="J75" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L75" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>71</v>
       </c>
@@ -4470,8 +4966,11 @@
       <c r="J76" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L76" s="15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>72</v>
       </c>
@@ -4505,8 +5004,11 @@
       <c r="J77" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L77" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>73</v>
       </c>
@@ -4540,8 +5042,11 @@
       <c r="J78" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L78" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>74</v>
       </c>
@@ -4575,8 +5080,11 @@
       <c r="J79" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L79" s="15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>75</v>
       </c>
@@ -4610,8 +5118,11 @@
       <c r="J80" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L80" s="15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>76</v>
       </c>
@@ -4645,8 +5156,11 @@
       <c r="J81" s="7" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L81" s="15" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>273</v>
       </c>
@@ -4671,8 +5185,11 @@
       <c r="H82" s="5">
         <v>270.32</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L82" s="15" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>77</v>
       </c>
@@ -4697,9 +5214,96 @@
       <c r="H83" s="5">
         <v>337.32</v>
       </c>
+      <c r="L83" s="15" t="s">
+        <v>477</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L6" r:id="rId4"/>
+    <hyperlink ref="L7" r:id="rId5"/>
+    <hyperlink ref="L8" r:id="rId6"/>
+    <hyperlink ref="L9" r:id="rId7"/>
+    <hyperlink ref="L10" r:id="rId8"/>
+    <hyperlink ref="L11" r:id="rId9"/>
+    <hyperlink ref="L12" r:id="rId10"/>
+    <hyperlink ref="L13" r:id="rId11"/>
+    <hyperlink ref="L15" r:id="rId12"/>
+    <hyperlink ref="L16" r:id="rId13"/>
+    <hyperlink ref="L17" r:id="rId14"/>
+    <hyperlink ref="L19" r:id="rId15"/>
+    <hyperlink ref="L20" r:id="rId16"/>
+    <hyperlink ref="L21" r:id="rId17"/>
+    <hyperlink ref="L22" r:id="rId18"/>
+    <hyperlink ref="L23" r:id="rId19"/>
+    <hyperlink ref="L24" r:id="rId20"/>
+    <hyperlink ref="L25" r:id="rId21"/>
+    <hyperlink ref="L26" r:id="rId22"/>
+    <hyperlink ref="L27" r:id="rId23"/>
+    <hyperlink ref="L28" r:id="rId24"/>
+    <hyperlink ref="L29" r:id="rId25"/>
+    <hyperlink ref="L30" r:id="rId26"/>
+    <hyperlink ref="L31" r:id="rId27"/>
+    <hyperlink ref="L32" r:id="rId28"/>
+    <hyperlink ref="L33" r:id="rId29"/>
+    <hyperlink ref="L34" r:id="rId30"/>
+    <hyperlink ref="L35" r:id="rId31"/>
+    <hyperlink ref="L36" r:id="rId32"/>
+    <hyperlink ref="L37" r:id="rId33"/>
+    <hyperlink ref="L38" r:id="rId34"/>
+    <hyperlink ref="L39" r:id="rId35"/>
+    <hyperlink ref="L41" r:id="rId36"/>
+    <hyperlink ref="L42" r:id="rId37"/>
+    <hyperlink ref="L43" r:id="rId38"/>
+    <hyperlink ref="L44" r:id="rId39"/>
+    <hyperlink ref="L45" r:id="rId40"/>
+    <hyperlink ref="L46" r:id="rId41"/>
+    <hyperlink ref="L47" r:id="rId42"/>
+    <hyperlink ref="L48" r:id="rId43"/>
+    <hyperlink ref="L49" r:id="rId44"/>
+    <hyperlink ref="L50" r:id="rId45"/>
+    <hyperlink ref="L51" r:id="rId46"/>
+    <hyperlink ref="L52" r:id="rId47"/>
+    <hyperlink ref="L53" r:id="rId48"/>
+    <hyperlink ref="L54" r:id="rId49"/>
+    <hyperlink ref="L55" r:id="rId50"/>
+    <hyperlink ref="L56" r:id="rId51"/>
+    <hyperlink ref="L57" r:id="rId52"/>
+    <hyperlink ref="L58" r:id="rId53"/>
+    <hyperlink ref="L59" r:id="rId54"/>
+    <hyperlink ref="L60" r:id="rId55"/>
+    <hyperlink ref="L61" r:id="rId56"/>
+    <hyperlink ref="L62" r:id="rId57"/>
+    <hyperlink ref="L66" r:id="rId58"/>
+    <hyperlink ref="L67" r:id="rId59"/>
+    <hyperlink ref="L68" r:id="rId60"/>
+    <hyperlink ref="L69" r:id="rId61"/>
+    <hyperlink ref="L70" r:id="rId62"/>
+    <hyperlink ref="L71" r:id="rId63"/>
+    <hyperlink ref="L81" r:id="rId64"/>
+    <hyperlink ref="L80" r:id="rId65"/>
+    <hyperlink ref="L82" r:id="rId66"/>
+    <hyperlink ref="L79" r:id="rId67"/>
+    <hyperlink ref="L77" r:id="rId68"/>
+    <hyperlink ref="L76" r:id="rId69"/>
+    <hyperlink ref="L75" r:id="rId70"/>
+    <hyperlink ref="L78" r:id="rId71"/>
+    <hyperlink ref="L72" r:id="rId72"/>
+    <hyperlink ref="L73" r:id="rId73"/>
+    <hyperlink ref="L83" r:id="rId74"/>
+    <hyperlink ref="L74" r:id="rId75"/>
+    <hyperlink ref="L14" r:id="rId76"/>
+    <hyperlink ref="L40" r:id="rId77"/>
+    <hyperlink ref="L18" r:id="rId78"/>
+    <hyperlink ref="L63" r:id="rId79"/>
+    <hyperlink ref="L64" r:id="rId80"/>
+    <hyperlink ref="L65" r:id="rId81"/>
+    <hyperlink ref="L5" r:id="rId82"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId83"/>
 </worksheet>
 </file>
--- a/products_categories/Product_details.xlsx
+++ b/products_categories/Product_details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="481">
   <si>
     <t>h1</t>
   </si>
@@ -475,9 +475,6 @@
     <t>Разклатете добре преди употреба! Три приема дневно по 40 мл. Сипвайте всяка доза в чаша и разреждайте в 240 мл вода или сок. Сипвайте напитката в чаша, не пийте директно от опаковката, за да не попадат в нея бактерии, които могат да ускорят развалянето.</t>
   </si>
   <si>
-    <t>На сухо и хладно място. След отваряне съхранявайте в изправено положение в хладилник (макс. 7°С) и консумирайте до 30 дни. Не вдигайте опаковката за гърлото, за да не я повредите.</t>
-  </si>
-  <si>
     <t>Стабилизиран гел от алое вера [гел от алое вера (86,0%), витамин С (аскорбинова киселина), антиоксидант (аскорбинова киселина), регулатор на киселинността (лимонена киселина)], натурален концентрат на пюре от манго, фруктоза, натурален аромат на манго.</t>
   </si>
   <si>
@@ -487,13 +484,7 @@
     <t>Стабилизиран гел от алое вера [гел от алое вера (90,7%), витамин С (аскорбинова киселина), антиоксидант (аскорбинова киселина), регулатор на киселинността (лимонена киселина)], натурален концентрат от ябълков сок, фруктоза, натурален концентрат от червени боровинки.</t>
   </si>
   <si>
-    <t>На сухо и хладно място. След отваряне съхранявайте изправен в хладилник (макс. 7°С) и консумирайте до 30 дни. Не вдигайте опаковката за гърлото, за да не я повредите.</t>
-  </si>
-  <si>
     <t>Стабилизиран гел от алое вера [гел от алое вера (84,3%), витамин С (аскорбинова киселина), антиоксидант (аскорбинова киселина), регулатор на киселинността (лимонена киселина)], натурален пюре от праскови (8%), фруктоза, натурален концентрат от бяло грозде, натурален аромат на праскови.</t>
-  </si>
-  <si>
-    <t>На сухо и хладно място. След отваряне съхранявайте опаковката изправена в хладилник (макс. 7°С) и консумирайте до 30 дни. Не я вдигайте за гърлото, за да не я повредите.</t>
   </si>
   <si>
     <t>Стабилизиран гел от алое вера, сорбитол, натурален концентрат от портокалов сок, фруктоза, глюкозамин сулфат, хондроитин сулфат, натурален портокалов аромат, метил сулфонил метан, аскорбинова киселина, лимонена киселина, натриев бензоат, токоферол (витамин Е).</t>
@@ -1776,6 +1767,24 @@
   </si>
   <si>
     <t>https://thealoeveraco.shop/rcFMHL9o</t>
+  </si>
+  <si>
+    <t>discount5</t>
+  </si>
+  <si>
+    <t>discount30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На сухо и хладно място. След отваряне съхранявайте изправен в хладилник (макс. 7°С) и консумирайте до 30 дни. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">На сухо и хладно място. След отваряне съхранявайте в изправено положение в хладилник (макс. 7°С) и консумирайте до 30 дни. </t>
+  </si>
+  <si>
+    <t>На сухо и хладно място. След отваряне съхранявайте в изправено положение в хладилник (макс. 7°С) и консумирайте до 30 дни.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На сухо и хладно място. След отваряне съхранявайте опаковката изправена в хладилник (макс. 7°С) и консумирайте до 30 дни. </t>
   </si>
 </sst>
 </file>
@@ -1852,7 +1861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1894,6 +1903,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -2175,27 +2187,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="1"/>
     <col min="3" max="3" width="15.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" style="3" customWidth="1"/>
-    <col min="9" max="11" width="25.77734375" style="1"/>
-    <col min="12" max="12" width="46.109375" customWidth="1"/>
-    <col min="13" max="16384" width="25.77734375" style="1"/>
+    <col min="9" max="9" width="6.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="25.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2203,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -2221,19 +2238,25 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2256,7 +2279,7 @@
         <v>products_img\\Product_details_JPG\\1000b.jpg</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H2" s="5">
         <v>59.54</v>
@@ -2268,13 +2291,21 @@
         <v>150</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>151</v>
+        <v>478</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="M2" s="17">
+        <f>H2 * 0.95</f>
+        <v>56.562999999999995</v>
+      </c>
+      <c r="N2" s="17">
+        <f>H2 * 0.7</f>
+        <v>41.677999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2297,107 +2328,131 @@
         <v>products_img\\Product_details_JPG\\1001b.jpg</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H3" s="5">
         <v>59.54</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>151</v>
+        <v>478</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+      <c r="M3" s="17">
+        <f t="shared" ref="M3:M66" si="0">H3 * 0.95</f>
+        <v>56.562999999999995</v>
+      </c>
+      <c r="N3" s="17">
+        <f t="shared" ref="N3:N66" si="1">H3 * 0.7</f>
+        <v>41.677999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C4" s="9">
         <v>1075</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f t="shared" ref="D4:D5" si="0" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C4:C85 &amp;".jpg"</f>
+        <f t="shared" ref="D4:D5" si="2" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C4:C85 &amp;".jpg"</f>
         <v>products_img\\Product_details_JPG\\1075.jpg</v>
       </c>
       <c r="E4" s="8" t="str">
-        <f t="shared" ref="E4:E5" si="1" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C4:C85 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" ref="E4:E5" si="3" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C4:C85 &amp;"a" &amp;".jpg"</f>
         <v>products_img\\Product_details_JPG\\1075a.jpg</v>
       </c>
       <c r="F4" s="8" t="str">
-        <f t="shared" ref="F4:F5" si="2" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C4:C85 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="F4:F5" si="4" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C4:C85 &amp;"b" &amp;".jpg"</f>
         <v>products_img\\Product_details_JPG\\1075b.jpg</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H4" s="12">
         <v>59.54</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>151</v>
+        <v>479</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+      <c r="M4" s="17">
+        <f t="shared" si="0"/>
+        <v>56.562999999999995</v>
+      </c>
+      <c r="N4" s="17">
+        <f t="shared" si="1"/>
+        <v>41.677999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C5" s="9">
         <v>1082</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>products_img\\Product_details_JPG\\1082.jpg</v>
       </c>
       <c r="E5" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>products_img\\Product_details_JPG\\1082a.jpg</v>
       </c>
       <c r="F5" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>products_img\\Product_details_JPG\\1082b.jpg</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H5" s="12">
         <v>55.51</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+      <c r="M5" s="17">
+        <f t="shared" si="0"/>
+        <v>52.734499999999997</v>
+      </c>
+      <c r="N5" s="17">
+        <f t="shared" si="1"/>
+        <v>38.856999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2408,7 +2463,7 @@
         <v>1002</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f t="shared" ref="D6:D14" si="3" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C6:C85 &amp;".jpg"</f>
+        <f t="shared" ref="D6:D14" si="5" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C6:C85 &amp;".jpg"</f>
         <v>products_img\\Product_details_JPG\\1002.jpg</v>
       </c>
       <c r="E6" s="1" t="str">
@@ -2420,25 +2475,33 @@
         <v>products_img\\Product_details_JPG\\1002b.jpg</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H6" s="5">
         <v>59.54</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>150</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>155</v>
+        <v>477</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" si="0"/>
+        <v>56.562999999999995</v>
+      </c>
+      <c r="N6" s="17">
+        <f t="shared" si="1"/>
+        <v>41.677999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2453,7 +2516,7 @@
         <v>products_img\\Product_details_JPG\\1003b.jpg</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H7" s="5">
         <v>178.61</v>
@@ -2465,18 +2528,26 @@
         <v>150</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>151</v>
+        <v>478</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+      <c r="M7" s="17">
+        <f t="shared" si="0"/>
+        <v>169.67950000000002</v>
+      </c>
+      <c r="N7" s="17">
+        <f t="shared" si="1"/>
+        <v>125.027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C8" s="9">
         <v>1004</v>
@@ -2487,25 +2558,33 @@
         <v>products_img\\Product_details_JPG\\1004b.jpg</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H8" s="12">
         <v>178.61</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>151</v>
+        <v>478</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+      <c r="M8" s="17">
+        <f t="shared" si="0"/>
+        <v>169.67950000000002</v>
+      </c>
+      <c r="N8" s="17">
+        <f t="shared" si="1"/>
+        <v>125.027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2520,25 +2599,33 @@
         <v>products_img\\Product_details_JPG\\1005b.jpg</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H9" s="5">
         <v>178.61</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>150</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>155</v>
+        <v>477</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="M9" s="17">
+        <f t="shared" si="0"/>
+        <v>169.67950000000002</v>
+      </c>
+      <c r="N9" s="17">
+        <f t="shared" si="1"/>
+        <v>125.027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2549,7 +2636,7 @@
         <v>1006</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>products_img\\Product_details_JPG\\1006.jpg</v>
       </c>
       <c r="E10" s="1" t="str">
@@ -2561,7 +2648,7 @@
         <v>products_img\\Product_details_JPG\\1006b.jpg</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H10" s="5">
         <v>238.12</v>
@@ -2573,13 +2660,21 @@
         <v>150</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>151</v>
+        <v>479</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+      <c r="M10" s="17">
+        <f t="shared" si="0"/>
+        <v>226.214</v>
+      </c>
+      <c r="N10" s="17">
+        <f t="shared" si="1"/>
+        <v>166.684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2590,7 +2685,7 @@
         <v>1007</v>
       </c>
       <c r="D11" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>products_img\\Product_details_JPG\\1007.jpg</v>
       </c>
       <c r="E11" s="1" t="str">
@@ -2602,25 +2697,33 @@
         <v>products_img\\Product_details_JPG\\1007b.jpg</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H11" s="5">
         <v>238.12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>150</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>157</v>
+        <v>480</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+      <c r="M11" s="17">
+        <f t="shared" si="0"/>
+        <v>226.214</v>
+      </c>
+      <c r="N11" s="17">
+        <f t="shared" si="1"/>
+        <v>166.684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2631,7 +2734,7 @@
         <v>1008</v>
       </c>
       <c r="D12" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>products_img\\Product_details_JPG\\1008.jpg</v>
       </c>
       <c r="E12" s="1" t="str">
@@ -2639,25 +2742,33 @@
         <v>products_img\\Product_details_JPG\\1008b.jpg</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H12" s="5">
         <v>238.12</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>150</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>155</v>
+        <v>477</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+      <c r="M12" s="17">
+        <f t="shared" si="0"/>
+        <v>226.214</v>
+      </c>
+      <c r="N12" s="17">
+        <f t="shared" si="1"/>
+        <v>166.684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -2668,7 +2779,7 @@
         <v>1009</v>
       </c>
       <c r="D13" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>products_img\\Product_details_JPG\\1009.jpg</v>
       </c>
       <c r="E13" s="1" t="str">
@@ -2676,36 +2787,44 @@
         <v>products_img\\Product_details_JPG\\1009b.jpg</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H13" s="5">
         <v>81.36</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="M13" s="17">
+        <f t="shared" si="0"/>
+        <v>77.292000000000002</v>
+      </c>
+      <c r="N13" s="17">
+        <f t="shared" si="1"/>
+        <v>56.951999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C14" s="9">
         <v>1076</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>products_img\\Product_details_JPG\\1076.jpg</v>
       </c>
       <c r="E14" s="8" t="str">
@@ -2717,22 +2836,30 @@
         <v>products_img\\Product_details_JPG\\1076b.jpg</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H14" s="12">
         <v>8.58</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+      <c r="M14" s="17">
+        <f t="shared" si="0"/>
+        <v>8.1509999999999998</v>
+      </c>
+      <c r="N14" s="17">
+        <f t="shared" si="1"/>
+        <v>6.0059999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2755,22 +2882,30 @@
         <v>products_img\\Product_details_JPG\\1010b.jpg</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H15" s="5">
         <v>40.06</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+      <c r="M15" s="17">
+        <f t="shared" si="0"/>
+        <v>38.057000000000002</v>
+      </c>
+      <c r="N15" s="17">
+        <f t="shared" si="1"/>
+        <v>28.041999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2793,22 +2928,30 @@
         <v>products_img\\Product_details_JPG\\1011b.jpg</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H16" s="6">
         <v>8.58</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+      <c r="M16" s="17">
+        <f t="shared" si="0"/>
+        <v>8.1509999999999998</v>
+      </c>
+      <c r="N16" s="17">
+        <f t="shared" si="1"/>
+        <v>6.0059999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -2827,27 +2970,35 @@
         <v>products_img\\Product_details_JPG\\1012b.jpg</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H17" s="5">
         <v>27.48</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+      <c r="M17" s="17">
+        <f t="shared" si="0"/>
+        <v>26.105999999999998</v>
+      </c>
+      <c r="N17" s="17">
+        <f t="shared" si="1"/>
+        <v>19.236000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C18" s="9">
         <v>1078</v>
@@ -2861,26 +3012,34 @@
         <v>products_img\\Product_details_JPG\\1078a.jpg</v>
       </c>
       <c r="F18" s="8" t="str">
-        <f t="shared" ref="F18" si="4" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C18:C96 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="F18" si="6" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C18:C96 &amp;"b" &amp;".jpg"</f>
         <v>products_img\\Product_details_JPG\\1078b.jpg</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H18" s="12">
         <v>32.61</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+      <c r="M18" s="17">
+        <f t="shared" si="0"/>
+        <v>30.979499999999998</v>
+      </c>
+      <c r="N18" s="17">
+        <f t="shared" si="1"/>
+        <v>22.826999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2891,7 +3050,7 @@
         <v>1013</v>
       </c>
       <c r="D19" s="4" t="str">
-        <f t="shared" ref="D19:D25" si="5" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C19:C96 &amp;".jpg"</f>
+        <f t="shared" ref="D19:D25" si="7" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C19:C96 &amp;".jpg"</f>
         <v>products_img\\Product_details_JPG\\1013.jpg</v>
       </c>
       <c r="E19" s="1" t="str">
@@ -2899,22 +3058,30 @@
         <v>products_img\\Product_details_JPG\\1013b.jpg</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H19" s="5">
         <v>40.06</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+      <c r="M19" s="17">
+        <f t="shared" si="0"/>
+        <v>38.057000000000002</v>
+      </c>
+      <c r="N19" s="17">
+        <f t="shared" si="1"/>
+        <v>28.041999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -2925,7 +3092,7 @@
         <v>1014</v>
       </c>
       <c r="D20" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>products_img\\Product_details_JPG\\1014.jpg</v>
       </c>
       <c r="E20" s="1" t="str">
@@ -2933,22 +3100,30 @@
         <v>products_img\\Product_details_JPG\\1014b.jpg</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H20" s="5">
         <v>72.680000000000007</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+      <c r="M20" s="17">
+        <f t="shared" si="0"/>
+        <v>69.046000000000006</v>
+      </c>
+      <c r="N20" s="17">
+        <f t="shared" si="1"/>
+        <v>50.876000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -2959,7 +3134,7 @@
         <v>1015</v>
       </c>
       <c r="D21" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>products_img\\Product_details_JPG\\1015.jpg</v>
       </c>
       <c r="E21" s="1" t="str">
@@ -2971,22 +3146,30 @@
         <v>products_img\\Product_details_JPG\\1015b.jpg</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H21" s="5">
         <v>156.84</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+      <c r="M21" s="17">
+        <f t="shared" si="0"/>
+        <v>148.99799999999999</v>
+      </c>
+      <c r="N21" s="17">
+        <f t="shared" si="1"/>
+        <v>109.788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -2997,7 +3180,7 @@
         <v>1016</v>
       </c>
       <c r="D22" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>products_img\\Product_details_JPG\\1016.jpg</v>
       </c>
       <c r="E22" s="1" t="str">
@@ -3005,22 +3188,30 @@
         <v>products_img\\Product_details_JPG\\1016b.jpg</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H22" s="5">
         <v>35.5</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+      <c r="M22" s="17">
+        <f t="shared" si="0"/>
+        <v>33.725000000000001</v>
+      </c>
+      <c r="N22" s="17">
+        <f t="shared" si="1"/>
+        <v>24.849999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -3031,7 +3222,7 @@
         <v>1017</v>
       </c>
       <c r="D23" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>products_img\\Product_details_JPG\\1017.jpg</v>
       </c>
       <c r="E23" s="1" t="str">
@@ -3039,22 +3230,30 @@
         <v>products_img\\Product_details_JPG\\1017b.jpg</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H23" s="5">
         <v>34.909999999999997</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+      <c r="M23" s="17">
+        <f t="shared" si="0"/>
+        <v>33.164499999999997</v>
+      </c>
+      <c r="N23" s="17">
+        <f t="shared" si="1"/>
+        <v>24.436999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -3065,7 +3264,7 @@
         <v>1018</v>
       </c>
       <c r="D24" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>products_img\\Product_details_JPG\\1018.jpg</v>
       </c>
       <c r="E24" s="1" t="str">
@@ -3073,22 +3272,30 @@
         <v>products_img\\Product_details_JPG\\1018b.jpg</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H24" s="5">
         <v>72.680000000000007</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+      <c r="M24" s="17">
+        <f t="shared" si="0"/>
+        <v>69.046000000000006</v>
+      </c>
+      <c r="N24" s="17">
+        <f t="shared" si="1"/>
+        <v>50.876000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -3099,7 +3306,7 @@
         <v>1019</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>products_img\\Product_details_JPG\\1019.jpg</v>
       </c>
       <c r="E25" s="1" t="str">
@@ -3107,22 +3314,30 @@
         <v>products_img\\Product_details_JPG\\1019b.jpg</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H25" s="5">
         <v>54.94</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+      <c r="M25" s="17">
+        <f t="shared" si="0"/>
+        <v>52.192999999999998</v>
+      </c>
+      <c r="N25" s="17">
+        <f t="shared" si="1"/>
+        <v>38.457999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -3137,22 +3352,30 @@
         <v>products_img\\Product_details_JPG\\1020b.jpg</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H26" s="5">
         <v>41.79</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+      <c r="M26" s="17">
+        <f t="shared" si="0"/>
+        <v>39.700499999999998</v>
+      </c>
+      <c r="N26" s="17">
+        <f t="shared" si="1"/>
+        <v>29.252999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -3163,7 +3386,7 @@
         <v>1021</v>
       </c>
       <c r="D27" s="4" t="str">
-        <f t="shared" ref="D27:D40" si="6" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C27:C104 &amp;".jpg"</f>
+        <f t="shared" ref="D27:D40" si="8" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C27:C104 &amp;".jpg"</f>
         <v>products_img\\Product_details_JPG\\1021.jpg</v>
       </c>
       <c r="E27" s="1" t="str">
@@ -3171,22 +3394,30 @@
         <v>products_img\\Product_details_JPG\\1021b.jpg</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H27" s="5">
         <v>48.08</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+      <c r="M27" s="17">
+        <f t="shared" si="0"/>
+        <v>45.675999999999995</v>
+      </c>
+      <c r="N27" s="17">
+        <f t="shared" si="1"/>
+        <v>33.655999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -3197,7 +3428,7 @@
         <v>1022</v>
       </c>
       <c r="D28" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>products_img\\Product_details_JPG\\1022.jpg</v>
       </c>
       <c r="E28" s="1" t="str">
@@ -3209,22 +3440,30 @@
         <v>products_img\\Product_details_JPG\\1022b.jpg</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H28" s="5">
         <v>84.69</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+      <c r="M28" s="17">
+        <f t="shared" si="0"/>
+        <v>80.455500000000001</v>
+      </c>
+      <c r="N28" s="17">
+        <f t="shared" si="1"/>
+        <v>59.282999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -3235,7 +3474,7 @@
         <v>1023</v>
       </c>
       <c r="D29" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>products_img\\Product_details_JPG\\1023.jpg</v>
       </c>
       <c r="E29" s="1" t="str">
@@ -3243,24 +3482,32 @@
         <v>products_img\\Product_details_JPG\\1023b.jpg</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H29" s="5">
         <v>80.12</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+      <c r="M29" s="17">
+        <f t="shared" si="0"/>
+        <v>76.114000000000004</v>
+      </c>
+      <c r="N29" s="17">
+        <f t="shared" si="1"/>
+        <v>56.083999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>101</v>
@@ -3269,7 +3516,7 @@
         <v>1024</v>
       </c>
       <c r="D30" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>products_img\\Product_details_JPG\\1024.jpg</v>
       </c>
       <c r="E30" s="1" t="str">
@@ -3281,22 +3528,30 @@
         <v>products_img\\Product_details_JPG\\1024b.jpg</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H30" s="5">
         <v>187.14</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+      <c r="M30" s="17">
+        <f t="shared" si="0"/>
+        <v>177.78299999999999</v>
+      </c>
+      <c r="N30" s="17">
+        <f t="shared" si="1"/>
+        <v>130.99799999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -3307,7 +3562,7 @@
         <v>1025</v>
       </c>
       <c r="D31" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>products_img\\Product_details_JPG\\1025.jpg</v>
       </c>
       <c r="E31" s="1" t="str">
@@ -3319,22 +3574,30 @@
         <v>products_img\\Product_details_JPG\\1025b.jpg</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H31" s="5">
         <v>60.68</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="M31" s="17">
+        <f t="shared" si="0"/>
+        <v>57.645999999999994</v>
+      </c>
+      <c r="N31" s="17">
+        <f t="shared" si="1"/>
+        <v>42.475999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -3345,7 +3608,7 @@
         <v>1026</v>
       </c>
       <c r="D32" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>products_img\\Product_details_JPG\\1026.jpg</v>
       </c>
       <c r="E32" s="1" t="str">
@@ -3353,22 +3616,30 @@
         <v>products_img\\Product_details_JPG\\1026b.jpg</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H32" s="5">
         <v>75.58</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="M32" s="17">
+        <f t="shared" si="0"/>
+        <v>71.801000000000002</v>
+      </c>
+      <c r="N32" s="17">
+        <f t="shared" si="1"/>
+        <v>52.905999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -3379,7 +3650,7 @@
         <v>1027</v>
       </c>
       <c r="D33" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>products_img\\Product_details_JPG\\1027.jpg</v>
       </c>
       <c r="E33" s="1" t="str">
@@ -3391,22 +3662,30 @@
         <v>products_img\\Product_details_JPG\\1027b.jpg</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H33" s="5">
         <v>88.12</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="M33" s="17">
+        <f t="shared" si="0"/>
+        <v>83.713999999999999</v>
+      </c>
+      <c r="N33" s="17">
+        <f t="shared" si="1"/>
+        <v>61.683999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -3417,7 +3696,7 @@
         <v>1028</v>
       </c>
       <c r="D34" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>products_img\\Product_details_JPG\\1028.jpg</v>
       </c>
       <c r="E34" s="1" t="str">
@@ -3425,22 +3704,30 @@
         <v>products_img\\Product_details_JPG\\1028b.jpg</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H34" s="5">
         <v>68.680000000000007</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="M34" s="17">
+        <f t="shared" si="0"/>
+        <v>65.246000000000009</v>
+      </c>
+      <c r="N34" s="17">
+        <f t="shared" si="1"/>
+        <v>48.076000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -3451,7 +3738,7 @@
         <v>1029</v>
       </c>
       <c r="D35" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>products_img\\Product_details_JPG\\1029.jpg</v>
       </c>
       <c r="E35" s="1" t="str">
@@ -3459,22 +3746,30 @@
         <v>products_img\\Product_details_JPG\\1029b.jpg</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H35" s="5">
         <v>72.680000000000007</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="M35" s="17">
+        <f t="shared" si="0"/>
+        <v>69.046000000000006</v>
+      </c>
+      <c r="N35" s="17">
+        <f t="shared" si="1"/>
+        <v>50.876000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3485,7 +3780,7 @@
         <v>1030</v>
       </c>
       <c r="D36" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>products_img\\Product_details_JPG\\1030.jpg</v>
       </c>
       <c r="E36" s="1" t="str">
@@ -3497,22 +3792,30 @@
         <v>products_img\\Product_details_JPG\\1030b.jpg</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H36" s="6">
         <v>118.46</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+      <c r="M36" s="17">
+        <f t="shared" si="0"/>
+        <v>112.53699999999999</v>
+      </c>
+      <c r="N36" s="17">
+        <f t="shared" si="1"/>
+        <v>82.921999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3523,7 +3826,7 @@
         <v>1031</v>
       </c>
       <c r="D37" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>products_img\\Product_details_JPG\\1031.jpg</v>
       </c>
       <c r="E37" s="1" t="str">
@@ -3535,22 +3838,30 @@
         <v>products_img\\Product_details_JPG\\1031b.jpg</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H37" s="5">
         <v>36.61</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+      <c r="M37" s="17">
+        <f t="shared" si="0"/>
+        <v>34.779499999999999</v>
+      </c>
+      <c r="N37" s="17">
+        <f t="shared" si="1"/>
+        <v>25.626999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -3561,7 +3872,7 @@
         <v>1032</v>
       </c>
       <c r="D38" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>products_img\\Product_details_JPG\\1032.jpg</v>
       </c>
       <c r="E38" s="1" t="str">
@@ -3573,22 +3884,30 @@
         <v>products_img\\Product_details_JPG\\1032b.jpg</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H38" s="5">
         <v>41.79</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+      <c r="M38" s="17">
+        <f t="shared" si="0"/>
+        <v>39.700499999999998</v>
+      </c>
+      <c r="N38" s="17">
+        <f t="shared" si="1"/>
+        <v>29.252999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -3599,7 +3918,7 @@
         <v>1033</v>
       </c>
       <c r="D39" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>products_img\\Product_details_JPG\\1033.jpg</v>
       </c>
       <c r="E39" s="1" t="str">
@@ -3611,33 +3930,41 @@
         <v>products_img\\Product_details_JPG\\1033b.jpg</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H39" s="5">
         <v>49.78</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+      <c r="M39" s="17">
+        <f t="shared" si="0"/>
+        <v>47.290999999999997</v>
+      </c>
+      <c r="N39" s="17">
+        <f t="shared" si="1"/>
+        <v>34.845999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C40" s="9">
         <v>1077</v>
       </c>
       <c r="D40" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>products_img\\Product_details_JPG\\1077.jpg</v>
       </c>
       <c r="E40" s="8" t="str">
@@ -3649,22 +3976,30 @@
         <v>products_img\\Product_details_JPG\\1077b.jpg</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H40" s="12">
         <v>72.680000000000007</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="M40" s="17">
+        <f t="shared" si="0"/>
+        <v>69.046000000000006</v>
+      </c>
+      <c r="N40" s="17">
+        <f t="shared" si="1"/>
+        <v>50.876000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -3675,7 +4010,7 @@
         <v>1034</v>
       </c>
       <c r="D41" s="4" t="str">
-        <f t="shared" ref="D41:D65" si="7" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C41:C117 &amp;".jpg"</f>
+        <f t="shared" ref="D41:D65" si="9" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C41:C117 &amp;".jpg"</f>
         <v>products_img\\Product_details_JPG\\1034.jpg</v>
       </c>
       <c r="E41" s="1" t="str">
@@ -3683,22 +4018,30 @@
         <v>products_img\\Product_details_JPG\\1034b.jpg</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H41" s="5">
         <v>8</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="M41" s="17">
+        <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+      <c r="N41" s="17">
+        <f t="shared" si="1"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -3709,7 +4052,7 @@
         <v>1035</v>
       </c>
       <c r="D42" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1035.jpg</v>
       </c>
       <c r="E42" s="1" t="str">
@@ -3717,22 +4060,30 @@
         <v>products_img\\Product_details_JPG\\1035b.jpg</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H42" s="5">
         <v>36.08</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="M42" s="17">
+        <f t="shared" si="0"/>
+        <v>34.275999999999996</v>
+      </c>
+      <c r="N42" s="17">
+        <f t="shared" si="1"/>
+        <v>25.255999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -3743,7 +4094,7 @@
         <v>1036</v>
       </c>
       <c r="D43" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1036.jpg</v>
       </c>
       <c r="E43" s="1" t="str">
@@ -3755,16 +4106,24 @@
         <v>products_img\\Product_details_JPG\\1036b.jpg</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H43" s="5">
         <v>400.64</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+      <c r="M43" s="17">
+        <f t="shared" si="0"/>
+        <v>380.60799999999995</v>
+      </c>
+      <c r="N43" s="17">
+        <f t="shared" si="1"/>
+        <v>280.44799999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -3775,7 +4134,7 @@
         <v>1037</v>
       </c>
       <c r="D44" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1037.jpg</v>
       </c>
       <c r="E44" s="1" t="str">
@@ -3787,22 +4146,30 @@
         <v>products_img\\Product_details_JPG\\1037b.jpg</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H44" s="5">
         <v>80.12</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="M44" s="17">
+        <f t="shared" si="0"/>
+        <v>76.114000000000004</v>
+      </c>
+      <c r="N44" s="17">
+        <f t="shared" si="1"/>
+        <v>56.083999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -3813,7 +4180,7 @@
         <v>1038</v>
       </c>
       <c r="D45" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1038.jpg</v>
       </c>
       <c r="E45" s="1" t="str">
@@ -3821,22 +4188,30 @@
         <v>products_img\\Product_details_JPG\\1038b.jpg</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H45" s="5">
         <v>119.05</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+      <c r="M45" s="17">
+        <f t="shared" si="0"/>
+        <v>113.0975</v>
+      </c>
+      <c r="N45" s="17">
+        <f t="shared" si="1"/>
+        <v>83.334999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -3847,34 +4222,42 @@
         <v>1039</v>
       </c>
       <c r="D46" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1039.jpg</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f t="shared" ref="E46:E61" si="8" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C46:C122 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" ref="E46:E61" si="10" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C46:C122 &amp;"a" &amp;".jpg"</f>
         <v>products_img\\Product_details_JPG\\1039a.jpg</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f t="shared" ref="F46:F61" si="9" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C46:C122 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="F46:F61" si="11" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C46:C122 &amp;"b" &amp;".jpg"</f>
         <v>products_img\\Product_details_JPG\\1039b.jpg</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H46" s="5">
         <v>60.11</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+      <c r="M46" s="17">
+        <f t="shared" si="0"/>
+        <v>57.104499999999994</v>
+      </c>
+      <c r="N46" s="17">
+        <f t="shared" si="1"/>
+        <v>42.076999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -3885,34 +4268,42 @@
         <v>1040</v>
       </c>
       <c r="D47" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1040.jpg</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>products_img\\Product_details_JPG\\1040a.jpg</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>products_img\\Product_details_JPG\\1040b.jpg</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H47" s="5">
         <v>132.77000000000001</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L47" s="15" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+      <c r="M47" s="17">
+        <f t="shared" si="0"/>
+        <v>126.1315</v>
+      </c>
+      <c r="N47" s="17">
+        <f t="shared" si="1"/>
+        <v>92.939000000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,34 +4314,42 @@
         <v>1041</v>
       </c>
       <c r="D48" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1041.jpg</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>products_img\\Product_details_JPG\\1041a.jpg</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>products_img\\Product_details_JPG\\1041b.jpg</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H48" s="5">
         <v>83.57</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="M48" s="17">
+        <f t="shared" si="0"/>
+        <v>79.391499999999994</v>
+      </c>
+      <c r="N48" s="17">
+        <f t="shared" si="1"/>
+        <v>58.498999999999988</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -3961,34 +4360,42 @@
         <v>1042</v>
       </c>
       <c r="D49" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1042.jpg</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>products_img\\Product_details_JPG\\1042a.jpg</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>products_img\\Product_details_JPG\\1042b.jpg</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H49" s="5">
         <v>41.79</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="M49" s="17">
+        <f t="shared" si="0"/>
+        <v>39.700499999999998</v>
+      </c>
+      <c r="N49" s="17">
+        <f t="shared" si="1"/>
+        <v>29.252999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -3999,28 +4406,36 @@
         <v>1043</v>
       </c>
       <c r="D50" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1043.jpg</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>products_img\\Product_details_JPG\\1043a.jpg</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>products_img\\Product_details_JPG\\1043b.jpg</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H50" s="5">
         <v>195.18</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="M50" s="17">
+        <f t="shared" si="0"/>
+        <v>185.42099999999999</v>
+      </c>
+      <c r="N50" s="17">
+        <f t="shared" si="1"/>
+        <v>136.626</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -4031,34 +4446,42 @@
         <v>1044</v>
       </c>
       <c r="D51" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1044.jpg</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>products_img\\Product_details_JPG\\1044a.jpg</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>products_img\\Product_details_JPG\\1044b.jpg</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H51" s="5">
         <v>50.92</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="M51" s="17">
+        <f t="shared" si="0"/>
+        <v>48.374000000000002</v>
+      </c>
+      <c r="N51" s="17">
+        <f t="shared" si="1"/>
+        <v>35.643999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -4069,34 +4492,42 @@
         <v>1045</v>
       </c>
       <c r="D52" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1045.jpg</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>products_img\\Product_details_JPG\\1045a.jpg</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>products_img\\Product_details_JPG\\1045b.jpg</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H52" s="5">
         <v>53.82</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="M52" s="17">
+        <f t="shared" si="0"/>
+        <v>51.128999999999998</v>
+      </c>
+      <c r="N52" s="17">
+        <f t="shared" si="1"/>
+        <v>37.673999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -4107,34 +4538,42 @@
         <v>1046</v>
       </c>
       <c r="D53" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1046.jpg</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>products_img\\Product_details_JPG\\1046a.jpg</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>products_img\\Product_details_JPG\\1046b.jpg</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H53" s="5">
         <v>53.82</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+      <c r="M53" s="17">
+        <f t="shared" si="0"/>
+        <v>51.128999999999998</v>
+      </c>
+      <c r="N53" s="17">
+        <f t="shared" si="1"/>
+        <v>37.673999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -4145,34 +4584,42 @@
         <v>1047</v>
       </c>
       <c r="D54" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1047.jpg</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>products_img\\Product_details_JPG\\1047a.jpg</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>products_img\\Product_details_JPG\\1047b.jpg</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H54" s="6">
         <v>58.96</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="M54" s="17">
+        <f t="shared" si="0"/>
+        <v>56.012</v>
+      </c>
+      <c r="N54" s="17">
+        <f t="shared" si="1"/>
+        <v>41.271999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -4183,34 +4630,42 @@
         <v>1048</v>
       </c>
       <c r="D55" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1048.jpg</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>products_img\\Product_details_JPG\\1048a.jpg</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>products_img\\Product_details_JPG\\1048b.jpg</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H55" s="5">
         <v>34.340000000000003</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+      <c r="M55" s="17">
+        <f t="shared" si="0"/>
+        <v>32.623000000000005</v>
+      </c>
+      <c r="N55" s="17">
+        <f t="shared" si="1"/>
+        <v>24.038</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -4221,34 +4676,42 @@
         <v>1049</v>
       </c>
       <c r="D56" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1049.jpg</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>products_img\\Product_details_JPG\\1049a.jpg</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>products_img\\Product_details_JPG\\1049b.jpg</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H56" s="5">
         <v>34.340000000000003</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+      <c r="M56" s="17">
+        <f t="shared" si="0"/>
+        <v>32.623000000000005</v>
+      </c>
+      <c r="N56" s="17">
+        <f t="shared" si="1"/>
+        <v>24.038</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -4259,34 +4722,42 @@
         <v>1050</v>
       </c>
       <c r="D57" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1050.jpg</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>products_img\\Product_details_JPG\\1050a.jpg</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>products_img\\Product_details_JPG\\1050b.jpg</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H57" s="5">
         <v>45.24</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+      <c r="M57" s="17">
+        <f t="shared" si="0"/>
+        <v>42.978000000000002</v>
+      </c>
+      <c r="N57" s="17">
+        <f t="shared" si="1"/>
+        <v>31.667999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -4297,34 +4768,42 @@
         <v>1051</v>
       </c>
       <c r="D58" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1051.jpg</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>products_img\\Product_details_JPG\\1051a.jpg</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>products_img\\Product_details_JPG\\1051b.jpg</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H58" s="5">
         <v>52.68</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L58" s="15" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="M58" s="17">
+        <f t="shared" si="0"/>
+        <v>50.045999999999999</v>
+      </c>
+      <c r="N58" s="17">
+        <f t="shared" si="1"/>
+        <v>36.875999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -4335,34 +4814,42 @@
         <v>1052</v>
       </c>
       <c r="D59" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1052.jpg</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>products_img\\Product_details_JPG\\1052a.jpg</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>products_img\\Product_details_JPG\\1052b.jpg</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H59" s="5">
         <v>45.24</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+      <c r="M59" s="17">
+        <f t="shared" si="0"/>
+        <v>42.978000000000002</v>
+      </c>
+      <c r="N59" s="17">
+        <f t="shared" si="1"/>
+        <v>31.667999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -4373,34 +4860,42 @@
         <v>1053</v>
       </c>
       <c r="D60" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1053.jpg</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>products_img\\Product_details_JPG\\1053a.jpg</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>products_img\\Product_details_JPG\\1053b.jpg</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H60" s="5">
         <v>47.53</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+      <c r="M60" s="17">
+        <f t="shared" si="0"/>
+        <v>45.153500000000001</v>
+      </c>
+      <c r="N60" s="17">
+        <f t="shared" si="1"/>
+        <v>33.271000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
@@ -4411,34 +4906,42 @@
         <v>1054</v>
       </c>
       <c r="D61" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1054.jpg</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>products_img\\Product_details_JPG\\1054a.jpg</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>products_img\\Product_details_JPG\\1054b.jpg</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H61" s="6">
         <v>34.340000000000003</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+      <c r="M61" s="17">
+        <f t="shared" si="0"/>
+        <v>32.623000000000005</v>
+      </c>
+      <c r="N61" s="17">
+        <f t="shared" si="1"/>
+        <v>24.038</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -4449,7 +4952,7 @@
         <v>1055</v>
       </c>
       <c r="D62" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1055.jpg</v>
       </c>
       <c r="E62" s="1" t="str">
@@ -4457,33 +4960,41 @@
         <v>products_img\\Product_details_JPG\\1055b.jpg</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H62" s="5">
         <v>13.76</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+      <c r="M62" s="17">
+        <f t="shared" si="0"/>
+        <v>13.071999999999999</v>
+      </c>
+      <c r="N62" s="17">
+        <f t="shared" si="1"/>
+        <v>9.6319999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>349</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>352</v>
       </c>
       <c r="C63" s="9">
         <v>1079</v>
       </c>
       <c r="D63" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1079.jpg</v>
       </c>
       <c r="E63" s="8" t="str">
@@ -4495,33 +5006,41 @@
         <v>products_img\\Product_details_JPG\\1079b.jpg</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H63" s="12">
         <v>76.69</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+      <c r="M63" s="17">
+        <f t="shared" si="0"/>
+        <v>72.855499999999992</v>
+      </c>
+      <c r="N63" s="17">
+        <f t="shared" si="1"/>
+        <v>53.682999999999993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B64" s="14" t="s">
         <v>350</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>353</v>
       </c>
       <c r="C64" s="9">
         <v>1080</v>
       </c>
       <c r="D64" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1080.jpg</v>
       </c>
       <c r="E64" s="8" t="str">
@@ -4533,33 +5052,41 @@
         <v>products_img\\Product_details_JPG\\1080b.jpg</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H64" s="12">
         <v>76.69</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+      <c r="M64" s="17">
+        <f t="shared" si="0"/>
+        <v>72.855499999999992</v>
+      </c>
+      <c r="N64" s="17">
+        <f t="shared" si="1"/>
+        <v>53.682999999999993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>351</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>354</v>
       </c>
       <c r="C65" s="9">
         <v>1081</v>
       </c>
       <c r="D65" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>products_img\\Product_details_JPG\\1081.jpg</v>
       </c>
       <c r="E65" s="8" t="str">
@@ -4571,22 +5098,30 @@
         <v>products_img\\Product_details_JPG\\1081b.jpg</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H65" s="12">
         <v>63.52</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+      <c r="M65" s="17">
+        <f t="shared" si="0"/>
+        <v>60.344000000000001</v>
+      </c>
+      <c r="N65" s="17">
+        <f t="shared" si="1"/>
+        <v>44.463999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>61</v>
       </c>
@@ -4597,34 +5132,42 @@
         <v>1056</v>
       </c>
       <c r="D66" s="4" t="str">
-        <f t="shared" ref="D66:D83" si="10" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C66:C139 &amp;".jpg"</f>
+        <f t="shared" ref="D66:D83" si="12" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C66:C139 &amp;".jpg"</f>
         <v>products_img\\Product_details_JPG\\1056.jpg</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f t="shared" ref="E66:E71" si="11" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C66:C139 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" ref="E66:E71" si="13" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C66:C139 &amp;"a" &amp;".jpg"</f>
         <v>products_img\\Product_details_JPG\\1056a.jpg</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" ref="F66:F71" si="12" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C66:C139 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="F66:F71" si="14" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C66:C139 &amp;"b" &amp;".jpg"</f>
         <v>products_img\\Product_details_JPG\\1056b.jpg</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H66" s="5">
         <v>51.49</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+      <c r="M66" s="17">
+        <f t="shared" si="0"/>
+        <v>48.915500000000002</v>
+      </c>
+      <c r="N66" s="17">
+        <f t="shared" si="1"/>
+        <v>36.042999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>62</v>
       </c>
@@ -4635,34 +5178,42 @@
         <v>1057</v>
       </c>
       <c r="D67" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>products_img\\Product_details_JPG\\1057.jpg</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>products_img\\Product_details_JPG\\1057a.jpg</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>products_img\\Product_details_JPG\\1057b.jpg</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H67" s="5">
         <v>42.92</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="M67" s="17">
+        <f t="shared" ref="M67:M83" si="15">H67 * 0.95</f>
+        <v>40.774000000000001</v>
+      </c>
+      <c r="N67" s="17">
+        <f t="shared" ref="N67:N83" si="16">H67 * 0.7</f>
+        <v>30.044</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>63</v>
       </c>
@@ -4673,34 +5224,42 @@
         <v>1058</v>
       </c>
       <c r="D68" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>products_img\\Product_details_JPG\\1058.jpg</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>products_img\\Product_details_JPG\\1058a.jpg</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>products_img\\Product_details_JPG\\1058b.jpg</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H68" s="5">
         <v>49.78</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+      <c r="M68" s="17">
+        <f t="shared" si="15"/>
+        <v>47.290999999999997</v>
+      </c>
+      <c r="N68" s="17">
+        <f t="shared" si="16"/>
+        <v>34.845999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>64</v>
       </c>
@@ -4711,34 +5270,42 @@
         <v>1059</v>
       </c>
       <c r="D69" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>products_img\\Product_details_JPG\\1059.jpg</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>products_img\\Product_details_JPG\\1059a.jpg</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>products_img\\Product_details_JPG\\1059b.jpg</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H69" s="5">
         <v>53.25</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="M69" s="17">
+        <f t="shared" si="15"/>
+        <v>50.587499999999999</v>
+      </c>
+      <c r="N69" s="17">
+        <f t="shared" si="16"/>
+        <v>37.274999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>65</v>
       </c>
@@ -4749,34 +5316,42 @@
         <v>1060</v>
       </c>
       <c r="D70" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>products_img\\Product_details_JPG\\1060.jpg</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>products_img\\Product_details_JPG\\1060a.jpg</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>products_img\\Product_details_JPG\\1060b.jpg</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H70" s="5">
         <v>17.739999999999998</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L70" s="15" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+      <c r="M70" s="17">
+        <f t="shared" si="15"/>
+        <v>16.852999999999998</v>
+      </c>
+      <c r="N70" s="17">
+        <f t="shared" si="16"/>
+        <v>12.417999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>66</v>
       </c>
@@ -4787,34 +5362,42 @@
         <v>1061</v>
       </c>
       <c r="D71" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>products_img\\Product_details_JPG\\1061.jpg</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>products_img\\Product_details_JPG\\1061a.jpg</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>products_img\\Product_details_JPG\\1061b.jpg</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H71" s="6">
         <v>34.340000000000003</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L71" s="15" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+      <c r="M71" s="17">
+        <f t="shared" si="15"/>
+        <v>32.623000000000005</v>
+      </c>
+      <c r="N71" s="17">
+        <f t="shared" si="16"/>
+        <v>24.038</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>67</v>
       </c>
@@ -4825,7 +5408,7 @@
         <v>1063</v>
       </c>
       <c r="D72" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>products_img\\Product_details_JPG\\1063.jpg</v>
       </c>
       <c r="E72" s="1" t="str">
@@ -4833,16 +5416,24 @@
         <v>products_img\\Product_details_JPG\\1063b.jpg</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H72" s="5">
         <v>1116.3399999999999</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+      <c r="M72" s="17">
+        <f t="shared" si="15"/>
+        <v>1060.5229999999999</v>
+      </c>
+      <c r="N72" s="17">
+        <f t="shared" si="16"/>
+        <v>781.43799999999987</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>68</v>
       </c>
@@ -4853,7 +5444,7 @@
         <v>1064</v>
       </c>
       <c r="D73" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>products_img\\Product_details_JPG\\1064.jpg</v>
       </c>
       <c r="E73" s="1" t="str">
@@ -4865,16 +5456,24 @@
         <v>products_img\\Product_details_JPG\\1064b.jpg</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H73" s="5">
         <v>75.19</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+      <c r="M73" s="17">
+        <f t="shared" si="15"/>
+        <v>71.430499999999995</v>
+      </c>
+      <c r="N73" s="17">
+        <f t="shared" si="16"/>
+        <v>52.632999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>69</v>
       </c>
@@ -4885,7 +5484,7 @@
         <v>1065</v>
       </c>
       <c r="D74" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>products_img\\Product_details_JPG\\1065.jpg</v>
       </c>
       <c r="E74" s="1" t="str">
@@ -4893,16 +5492,18 @@
         <v>products_img\\Product_details_JPG\\1065b.jpg</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+    </row>
+    <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>70</v>
       </c>
@@ -4913,7 +5514,7 @@
         <v>1066</v>
       </c>
       <c r="D75" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>products_img\\Product_details_JPG\\1066.jpg</v>
       </c>
       <c r="E75" s="1" t="str">
@@ -4921,22 +5522,30 @@
         <v>products_img\\Product_details_JPG\\1066b.jpg</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H75" s="5">
         <v>57.23</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+      <c r="M75" s="17">
+        <f t="shared" si="15"/>
+        <v>54.368499999999997</v>
+      </c>
+      <c r="N75" s="17">
+        <f t="shared" si="16"/>
+        <v>40.060999999999993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>71</v>
       </c>
@@ -4947,7 +5556,7 @@
         <v>1067</v>
       </c>
       <c r="D76" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>products_img\\Product_details_JPG\\1067.jpg</v>
       </c>
       <c r="E76" s="1" t="str">
@@ -4955,22 +5564,30 @@
         <v>products_img\\Product_details_JPG\\1067b.jpg</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H76" s="5">
         <v>57.23</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L76" s="15" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+      <c r="M76" s="17">
+        <f t="shared" si="15"/>
+        <v>54.368499999999997</v>
+      </c>
+      <c r="N76" s="17">
+        <f t="shared" si="16"/>
+        <v>40.060999999999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>72</v>
       </c>
@@ -4981,34 +5598,42 @@
         <v>1068</v>
       </c>
       <c r="D77" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>products_img\\Product_details_JPG\\1068.jpg</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f t="shared" ref="E77:E83" si="13" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C77:C150 &amp;"a" &amp;".jpg"</f>
+        <f t="shared" ref="E77:E83" si="17" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C77:C150 &amp;"a" &amp;".jpg"</f>
         <v>products_img\\Product_details_JPG\\1068a.jpg</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f t="shared" ref="F77:F83" si="14" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C77:C150 &amp;"b" &amp;".jpg"</f>
+        <f t="shared" ref="F77:F83" si="18" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C77:C150 &amp;"b" &amp;".jpg"</f>
         <v>products_img\\Product_details_JPG\\1068b.jpg</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H77" s="5">
         <v>127.62</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+      <c r="M77" s="17">
+        <f t="shared" si="15"/>
+        <v>121.239</v>
+      </c>
+      <c r="N77" s="17">
+        <f t="shared" si="16"/>
+        <v>89.334000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>73</v>
       </c>
@@ -5019,34 +5644,42 @@
         <v>1069</v>
       </c>
       <c r="D78" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>products_img\\Product_details_JPG\\1069.jpg</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>products_img\\Product_details_JPG\\1069a.jpg</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>products_img\\Product_details_JPG\\1069b.jpg</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H78" s="5">
         <v>60.11</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L78" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="M78" s="17">
+        <f t="shared" si="15"/>
+        <v>57.104499999999994</v>
+      </c>
+      <c r="N78" s="17">
+        <f t="shared" si="16"/>
+        <v>42.076999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>74</v>
       </c>
@@ -5057,34 +5690,42 @@
         <v>1070</v>
       </c>
       <c r="D79" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>products_img\\Product_details_JPG\\1070.jpg</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>products_img\\Product_details_JPG\\1070a.jpg</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>products_img\\Product_details_JPG\\1070b.jpg</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H79" s="5">
         <v>86.44</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L79" s="15" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+      <c r="M79" s="17">
+        <f t="shared" si="15"/>
+        <v>82.117999999999995</v>
+      </c>
+      <c r="N79" s="17">
+        <f t="shared" si="16"/>
+        <v>60.507999999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>75</v>
       </c>
@@ -5095,34 +5736,42 @@
         <v>1071</v>
       </c>
       <c r="D80" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>products_img\\Product_details_JPG\\1071.jpg</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>products_img\\Product_details_JPG\\1071a.jpg</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>products_img\\Product_details_JPG\\1071b.jpg</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H80" s="5">
         <v>10.31</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+      <c r="M80" s="17">
+        <f t="shared" si="15"/>
+        <v>9.7944999999999993</v>
+      </c>
+      <c r="N80" s="17">
+        <f t="shared" si="16"/>
+        <v>7.2169999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>76</v>
       </c>
@@ -5133,63 +5782,79 @@
         <v>1072</v>
       </c>
       <c r="D81" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>products_img\\Product_details_JPG\\1072.jpg</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>products_img\\Product_details_JPG\\1072a.jpg</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>products_img\\Product_details_JPG\\1072b.jpg</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H81" s="5">
         <v>320.5</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+      <c r="M81" s="17">
+        <f t="shared" si="15"/>
+        <v>304.47499999999997</v>
+      </c>
+      <c r="N81" s="17">
+        <f t="shared" si="16"/>
+        <v>224.35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C82" s="3">
         <v>1073</v>
       </c>
       <c r="D82" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>products_img\\Product_details_JPG\\1073.jpg</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>products_img\\Product_details_JPG\\1073a.jpg</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>products_img\\Product_details_JPG\\1073b.jpg</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H82" s="5">
         <v>270.32</v>
       </c>
       <c r="L82" s="15" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+      <c r="M82" s="17">
+        <f t="shared" si="15"/>
+        <v>256.80399999999997</v>
+      </c>
+      <c r="N82" s="17">
+        <f t="shared" si="16"/>
+        <v>189.22399999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>77</v>
       </c>
@@ -5197,25 +5862,33 @@
         <v>1074</v>
       </c>
       <c r="D83" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>products_img\\Product_details_JPG\\1074.jpg</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>products_img\\Product_details_JPG\\1074a.jpg</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>products_img\\Product_details_JPG\\1074b.jpg</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H83" s="5">
         <v>337.32</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>477</v>
+        <v>474</v>
+      </c>
+      <c r="M83" s="17">
+        <f t="shared" si="15"/>
+        <v>320.45399999999995</v>
+      </c>
+      <c r="N83" s="17">
+        <f t="shared" si="16"/>
+        <v>236.12399999999997</v>
       </c>
     </row>
   </sheetData>
